--- a/pkg/tests/testthat/write_read_ts/xlsx_org/ts1_lbls.xlsx
+++ b/pkg/tests/testthat/write_read_ts/xlsx_org/ts1_lbls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_before" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -64,6 +64,12 @@
     <t xml:space="preserve">Timeseries b</t>
   </si>
   <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timeseries c</t>
+  </si>
+  <si>
     <t xml:space="preserve">period</t>
   </si>
   <si>
@@ -83,63 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Timeseries a</t>
-  </si>
-  <si>
-    <t>Timeseries b</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
 </sst>
 </file>
@@ -154,6 +103,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -213,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,30 +171,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -265,13 +191,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="218" zoomScaleNormal="218" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="218" zoomScaleNormal="218" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,84 +232,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="5.5234375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.60546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="7.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="0" width="7.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="0" width="7.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" hidden="false" style="0" width="7.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" hidden="false" style="0" width="7.44140625" collapsed="true"/>
-    <col min="8" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s" s="8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2" t="n">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>5.25</v>
       </c>
-      <c r="G2" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="n">
+      <c r="G2" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>52.5</v>
       </c>
-      <c r="G3" t="n">
-        <v>60.0</v>
+      <c r="G3" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-111</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -405,93 +349,83 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="0" width="7.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="11.60546875" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
